--- a/input/test.xlsx
+++ b/input/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14940" tabRatio="500"/>
+    <workbookView windowHeight="14920" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="測試" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683">
   <si>
     <t>序號</t>
   </si>
@@ -683,6 +683,9 @@
   </si>
   <si>
     <t>同意上述條款</t>
+  </si>
+  <si>
+    <t>新修改</t>
   </si>
   <si>
     <t>Accept the above terms</t>
@@ -2114,10 +2117,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -2200,7 +2203,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2214,30 +2217,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2259,32 +2255,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2305,6 +2278,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -2313,16 +2293,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2335,9 +2315,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2358,7 +2361,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2370,13 +2451,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2388,7 +2481,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2400,145 +2541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2552,32 +2555,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2586,32 +2568,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2635,105 +2591,152 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2745,55 +2748,55 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3170,8 +3173,8 @@
   <sheetPr/>
   <dimension ref="A1:H270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B54" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.2" outlineLevelCol="7"/>
@@ -4380,11 +4383,14 @@
       <c r="C66" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="D66" s="4" t="s">
+        <v>222</v>
+      </c>
       <c r="E66" s="4" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" ht="17" spans="1:6">
@@ -4392,19 +4398,19 @@
         <v>66</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>52</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="68" ht="17" spans="1:6">
@@ -4412,16 +4418,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F68" s="4" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" ht="17" spans="1:6">
@@ -4429,16 +4435,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="70" ht="17" spans="1:6">
@@ -4446,16 +4452,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" ht="17" spans="1:6">
@@ -4463,16 +4469,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" ht="17" spans="1:6">
@@ -4480,16 +4486,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="73" ht="17" spans="1:6">
@@ -4497,16 +4503,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" ht="17" spans="1:6">
@@ -4514,16 +4520,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="75" ht="17" spans="1:6">
@@ -4531,16 +4537,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" ht="17" spans="1:6">
@@ -4548,16 +4554,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="77" ht="17" spans="1:6">
@@ -4565,16 +4571,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:6">
@@ -4582,16 +4588,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="79" ht="17" spans="1:6">
@@ -4599,16 +4605,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" ht="17" spans="1:6">
@@ -4616,16 +4622,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" ht="17" spans="1:6">
@@ -4633,16 +4639,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="82" ht="17" spans="1:6">
@@ -4650,16 +4656,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" ht="17" spans="1:6">
@@ -4667,16 +4673,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="84" ht="17" spans="1:8">
@@ -4684,22 +4690,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" ht="17" spans="1:6">
@@ -4707,17 +4713,17 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" ht="17" spans="1:6">
@@ -4725,16 +4731,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="87" ht="17" spans="1:6">
@@ -4742,16 +4748,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="88" ht="17" spans="1:6">
@@ -4759,16 +4765,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="89" ht="17" spans="1:6">
@@ -4776,19 +4782,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="90" ht="34" spans="1:6">
@@ -4796,17 +4802,17 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="4" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="91" ht="34" spans="1:6">
@@ -4814,17 +4820,17 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="92" ht="17" spans="1:6">
@@ -4832,16 +4838,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="93" ht="17" spans="1:6">
@@ -4849,19 +4855,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="94" ht="17" spans="1:6">
@@ -4869,19 +4875,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" ht="17" spans="1:6">
@@ -4889,16 +4895,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="96" ht="17" spans="1:6">
@@ -4906,16 +4912,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="97" ht="17" spans="1:6">
@@ -4923,16 +4929,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="98" ht="17" spans="1:6">
@@ -4940,16 +4946,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="99" ht="17" spans="1:6">
@@ -4957,16 +4963,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="100" ht="17" spans="1:6">
@@ -4974,16 +4980,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="101" ht="17" spans="1:6">
@@ -4991,16 +4997,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="102" ht="51" spans="1:6">
@@ -5008,16 +5014,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" ht="34" spans="1:6">
@@ -5025,16 +5031,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="104" ht="17" spans="1:6">
@@ -5042,16 +5048,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="105" ht="17" spans="1:6">
@@ -5059,16 +5065,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="106" ht="17" spans="1:6">
@@ -5076,16 +5082,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="107" ht="17" spans="1:6">
@@ -5093,16 +5099,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="108" ht="17" spans="1:6">
@@ -5110,16 +5116,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="109" ht="17" spans="1:6">
@@ -5127,16 +5133,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="110" ht="17" spans="1:6">
@@ -5144,16 +5150,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="111" ht="17" spans="1:6">
@@ -5161,16 +5167,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="112" ht="17" spans="1:6">
@@ -5178,16 +5184,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="113" ht="17" spans="1:6">
@@ -5195,16 +5201,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="114" ht="17" spans="1:6">
@@ -5212,16 +5218,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="115" ht="17" spans="1:6">
@@ -5229,16 +5235,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
     </row>
     <row r="116" ht="17" spans="1:6">
@@ -5246,16 +5252,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="117" ht="17" spans="1:6">
@@ -5263,16 +5269,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="118" ht="17" spans="1:6">
@@ -5280,16 +5286,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="119" ht="17" spans="1:6">
@@ -5297,16 +5303,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="120" ht="17" spans="1:6">
@@ -5314,16 +5320,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="121" ht="17" spans="1:6">
@@ -5331,16 +5337,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="122" ht="17" spans="1:6">
@@ -5348,16 +5354,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:6">
@@ -5365,16 +5371,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="124" ht="17" spans="1:6">
@@ -5382,16 +5388,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="125" ht="17" spans="1:6">
@@ -5399,16 +5405,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:6">
@@ -5416,16 +5422,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="127" ht="17" spans="1:6">
@@ -5433,16 +5439,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="128" ht="17" spans="1:6">
@@ -5450,16 +5456,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="129" ht="33" spans="1:6">
@@ -5467,16 +5473,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="130" ht="17" spans="1:6">
@@ -5484,16 +5490,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="131" ht="17" spans="1:7">
@@ -5501,19 +5507,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="132" ht="17" spans="1:6">
@@ -5521,16 +5527,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="133" ht="17" spans="1:6">
@@ -5538,16 +5544,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="134" ht="17" spans="1:6">
@@ -5555,16 +5561,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="135" ht="17" spans="1:6">
@@ -5572,16 +5578,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="136" ht="17" spans="1:6">
@@ -5589,16 +5595,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="137" ht="17" spans="1:6">
@@ -5606,17 +5612,17 @@
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="138" ht="17" spans="1:2">
@@ -5624,7 +5630,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="139" ht="17" spans="1:6">
@@ -5632,16 +5638,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="140" ht="17" spans="1:6">
@@ -5649,16 +5655,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="141" ht="17" spans="1:6">
@@ -5666,16 +5672,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="142" ht="17" spans="1:6">
@@ -5683,16 +5689,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="143" ht="17" spans="1:6">
@@ -5700,16 +5706,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="144" ht="17" spans="1:6">
@@ -5717,16 +5723,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="145" ht="17" spans="1:6">
@@ -5734,16 +5740,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="146" ht="17" spans="1:6">
@@ -5751,16 +5757,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="147" ht="17" spans="1:6">
@@ -5768,16 +5774,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="148" ht="17" spans="1:6">
@@ -5785,16 +5791,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="149" ht="17" spans="1:6">
@@ -5802,16 +5808,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
     </row>
     <row r="150" ht="17" spans="1:6">
@@ -5819,16 +5825,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="151" ht="17" spans="1:6">
@@ -5836,16 +5842,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
     </row>
     <row r="152" ht="17" spans="1:6">
@@ -5853,16 +5859,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="153" ht="17" spans="1:6">
@@ -5870,16 +5876,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="154" ht="17" spans="1:6">
@@ -5887,16 +5893,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="155" ht="17" spans="1:6">
@@ -5904,16 +5910,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="156" ht="17" spans="1:3">
@@ -5921,10 +5927,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="157" ht="17" spans="1:6">
@@ -5932,16 +5938,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="158" ht="17" spans="1:6">
@@ -5949,16 +5955,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="159" ht="17" spans="1:6">
@@ -5966,16 +5972,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="160" ht="17" spans="1:6">
@@ -5983,16 +5989,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="161" ht="17" spans="1:6">
@@ -6000,16 +6006,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="162" ht="17" spans="1:6">
@@ -6017,16 +6023,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="163" ht="17" spans="1:6">
@@ -6034,16 +6040,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="164" ht="17" spans="1:6">
@@ -6051,16 +6057,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="165" ht="17" spans="1:6">
@@ -6068,16 +6074,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="166" ht="17" spans="1:6">
@@ -6085,16 +6091,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:6">
@@ -6102,16 +6108,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="168" ht="34" spans="1:6">
@@ -6119,16 +6125,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="169" ht="17" spans="1:5">
@@ -6136,13 +6142,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="170" ht="17" spans="1:5">
@@ -6150,13 +6156,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="171" ht="17" spans="1:6">
@@ -6164,16 +6170,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
     </row>
     <row r="172" ht="17" spans="1:6">
@@ -6181,16 +6187,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
     </row>
     <row r="173" ht="17" spans="1:6">
@@ -6198,16 +6204,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="174" ht="17" spans="1:6">
@@ -6215,16 +6221,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="175" ht="17" spans="1:6">
@@ -6232,16 +6238,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="176" ht="17" spans="1:6">
@@ -6249,16 +6255,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
     </row>
     <row r="177" ht="17" spans="1:6">
@@ -6266,16 +6272,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:6">
@@ -6283,16 +6289,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="179" ht="17" spans="1:6">
@@ -6300,16 +6306,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="180" ht="17" spans="1:6">
@@ -6317,16 +6323,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="181" ht="17" spans="1:6">
@@ -6334,16 +6340,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="182" ht="17" spans="1:6">
@@ -6351,16 +6357,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="183" ht="17" spans="1:6">
@@ -6368,16 +6374,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="184" ht="17" spans="1:6">
@@ -6385,16 +6391,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="185" ht="17" spans="1:6">
@@ -6402,16 +6408,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="186" ht="17" spans="1:6">
@@ -6419,16 +6425,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="187" ht="17" spans="1:6">
@@ -6436,16 +6442,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="188" ht="17" spans="1:6">
@@ -6453,16 +6459,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="189" ht="17" spans="1:6">
@@ -6470,16 +6476,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="190" ht="17" spans="1:6">
@@ -6487,16 +6493,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="191" ht="17" spans="1:6">
@@ -6504,16 +6510,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="192" ht="17" spans="1:6">
@@ -6521,16 +6527,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="193" ht="17" spans="1:6">
@@ -6538,16 +6544,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="194" ht="17" spans="1:6">
@@ -6555,16 +6561,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="195" ht="31" spans="1:6">
@@ -6572,16 +6578,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="196" ht="16.8" spans="2:5">
@@ -6590,7 +6596,7 @@
     </row>
     <row r="197" ht="20.4" spans="2:5">
       <c r="B197" s="12" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>155</v>
@@ -6599,7 +6605,7 @@
     </row>
     <row r="198" ht="20.4" spans="2:3">
       <c r="B198" s="12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>155</v>
@@ -6607,7 +6613,7 @@
     </row>
     <row r="199" ht="20.4" spans="2:3">
       <c r="B199" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>155</v>
@@ -6615,7 +6621,7 @@
     </row>
     <row r="200" ht="20.4" spans="2:3">
       <c r="B200" s="12" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>155</v>
@@ -6623,98 +6629,98 @@
     </row>
     <row r="201" ht="20.4" spans="2:3">
       <c r="B201" s="12" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="202" ht="20.4" spans="2:3">
       <c r="B202" s="12" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="203" ht="20.4" spans="2:3">
       <c r="B203" s="12" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="204" ht="20.4" spans="2:3">
       <c r="B204" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>620</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="205" ht="20.4" spans="2:3">
       <c r="B205" s="12" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="206" ht="20.4" spans="2:3">
       <c r="B206" s="12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="207" ht="20.4" spans="2:3">
       <c r="B207" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="208" ht="20.4" spans="2:3">
       <c r="B208" s="12" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="209" ht="20.4" spans="2:3">
       <c r="B209" s="12" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="210" ht="20.4" spans="2:3">
       <c r="B210" s="12" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="211" ht="20.4" spans="2:3">
       <c r="B211" s="12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="212" ht="20.4" spans="2:3">
       <c r="B212" s="12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="213" spans="2:2">
@@ -6722,183 +6728,183 @@
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="13" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="13" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="13" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="13" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="13" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="13" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="13" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="13" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="229" spans="2:3">
       <c r="B229" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="230" spans="2:3">
       <c r="B230" s="13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="13" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="232" spans="2:3">
       <c r="B232" s="13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="233" spans="2:3">
       <c r="B233" s="13" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="234" ht="16.4" spans="2:3">
       <c r="B234" s="14" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="235" spans="2:3">
       <c r="B235" s="15" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="236" ht="16.4" spans="2:3">
       <c r="B236" s="14" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>155</v>
@@ -6906,7 +6912,7 @@
     </row>
     <row r="237" ht="16.4" spans="2:3">
       <c r="B237" s="14" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>155</v>
@@ -6914,7 +6920,7 @@
     </row>
     <row r="238" ht="16.4" spans="2:3">
       <c r="B238" s="14" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>155</v>
@@ -6922,15 +6928,15 @@
     </row>
     <row r="239" ht="16.4" spans="2:3">
       <c r="B239" s="14" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="240" ht="16.4" spans="2:3">
       <c r="B240" s="14" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>12</v>
@@ -6938,7 +6944,7 @@
     </row>
     <row r="241" ht="16.4" spans="2:3">
       <c r="B241" s="14" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>12</v>
@@ -6946,7 +6952,7 @@
     </row>
     <row r="242" ht="16.4" spans="2:3">
       <c r="B242" s="14" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>12</v>
@@ -6954,7 +6960,7 @@
     </row>
     <row r="243" ht="16.4" spans="2:3">
       <c r="B243" s="14" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>12</v>
@@ -6962,7 +6968,7 @@
     </row>
     <row r="244" ht="16.4" spans="2:3">
       <c r="B244" s="14" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>155</v>
@@ -6970,7 +6976,7 @@
     </row>
     <row r="245" ht="16.4" spans="2:3">
       <c r="B245" s="14" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>155</v>
@@ -6978,7 +6984,7 @@
     </row>
     <row r="246" ht="16.4" spans="2:3">
       <c r="B246" s="14" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>155</v>
@@ -6986,7 +6992,7 @@
     </row>
     <row r="247" ht="16.4" spans="2:3">
       <c r="B247" s="14" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>155</v>
@@ -6994,7 +7000,7 @@
     </row>
     <row r="248" ht="16.4" spans="2:3">
       <c r="B248" s="14" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>12</v>
@@ -7002,15 +7008,15 @@
     </row>
     <row r="249" ht="16.4" spans="2:3">
       <c r="B249" s="14" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="250" ht="16.4" spans="2:3">
       <c r="B250" s="14" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>12</v>
@@ -7018,74 +7024,74 @@
     </row>
     <row r="251" ht="16.4" spans="2:3">
       <c r="B251" s="14" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="252" ht="16.4" spans="2:3">
       <c r="B252" s="14" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="253" ht="16.4" spans="2:3">
       <c r="B253" s="14" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="254" ht="16.4" spans="2:3">
       <c r="B254" s="14" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="255" ht="16.4" spans="2:3">
       <c r="B255" s="14" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="256" ht="16.4" spans="2:3">
       <c r="B256" s="14" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="257" ht="16.4" spans="2:3">
       <c r="B257" s="14" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="258" ht="16.4" spans="2:3">
       <c r="B258" s="14" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="259" ht="16.4" spans="2:3">
       <c r="B259" s="14" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="260" spans="2:2">
@@ -7093,82 +7099,82 @@
     </row>
     <row r="261" ht="16.4" spans="2:3">
       <c r="B261" s="14" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="262" ht="16.4" spans="2:3">
       <c r="B262" s="14" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="263" ht="16.4" spans="2:3">
       <c r="B263" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="264" ht="16.4" spans="2:3">
       <c r="B264" s="14" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="265" ht="16.4" spans="2:3">
       <c r="B265" s="14" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="266" ht="16.4" spans="2:3">
       <c r="B266" s="14" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="267" ht="16.4" spans="2:3">
       <c r="B267" s="14" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="268" ht="16.4" spans="2:3">
       <c r="B268" s="14" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="269" ht="16.4" spans="2:3">
       <c r="B269" s="14" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="270" ht="16.4" spans="2:3">
       <c r="B270" s="14" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>

--- a/input/test.xlsx
+++ b/input/test.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684">
   <si>
     <t>序號</t>
   </si>
@@ -716,6 +716,9 @@
   </si>
   <si>
     <t>身份識別</t>
+  </si>
+  <si>
+    <t>新修改身份識別</t>
   </si>
   <si>
     <t>Identification</t>
@@ -2203,13 +2206,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="0"/>
@@ -2224,7 +2220,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
@@ -2240,18 +2236,18 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF800080"/>
       <name val="DengXian"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2264,52 +2260,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2325,7 +2285,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2334,6 +2294,49 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="DengXian"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2361,7 +2364,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2373,7 +2478,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2385,31 +2508,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2421,13 +2532,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2439,109 +2544,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2558,17 +2561,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2592,22 +2586,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2628,16 +2622,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2652,151 +2646,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3174,7 +3177,7 @@
   <dimension ref="A1:H270"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.2" outlineLevelCol="7"/>
@@ -4440,11 +4443,14 @@
       <c r="C69" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="D69" s="4" t="s">
+        <v>233</v>
+      </c>
       <c r="E69" s="4" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F69" s="4" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" ht="17" spans="1:6">
@@ -4452,16 +4458,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F70" s="4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="71" ht="17" spans="1:6">
@@ -4469,16 +4475,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" ht="17" spans="1:6">
@@ -4486,16 +4492,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="73" ht="17" spans="1:6">
@@ -4503,16 +4509,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F73" s="4" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="74" ht="17" spans="1:6">
@@ -4520,16 +4526,16 @@
         <v>73</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="75" ht="17" spans="1:6">
@@ -4537,16 +4543,16 @@
         <v>74</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="76" ht="17" spans="1:6">
@@ -4554,16 +4560,16 @@
         <v>75</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="77" ht="17" spans="1:6">
@@ -4571,16 +4577,16 @@
         <v>76</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="78" ht="17" spans="1:6">
@@ -4588,16 +4594,16 @@
         <v>77</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C78" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="79" ht="17" spans="1:6">
@@ -4605,16 +4611,16 @@
         <v>78</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" ht="17" spans="1:6">
@@ -4622,16 +4628,16 @@
         <v>79</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" ht="17" spans="1:6">
@@ -4639,16 +4645,16 @@
         <v>80</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
     </row>
     <row r="82" ht="17" spans="1:6">
@@ -4656,16 +4662,16 @@
         <v>81</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C82" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="83" ht="17" spans="1:6">
@@ -4673,16 +4679,16 @@
         <v>82</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
     <row r="84" ht="17" spans="1:8">
@@ -4690,22 +4696,22 @@
         <v>83</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" ht="17" spans="1:6">
@@ -4713,17 +4719,17 @@
         <v>84</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="7"/>
       <c r="E85" s="4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="86" ht="17" spans="1:6">
@@ -4731,16 +4737,16 @@
         <v>85</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="87" ht="17" spans="1:6">
@@ -4748,16 +4754,16 @@
         <v>86</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="88" ht="17" spans="1:6">
@@ -4765,16 +4771,16 @@
         <v>87</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="89" ht="17" spans="1:6">
@@ -4782,19 +4788,19 @@
         <v>88</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="90" ht="34" spans="1:6">
@@ -4802,17 +4808,17 @@
         <v>89</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D90" s="7"/>
       <c r="E90" s="4" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="91" ht="34" spans="1:6">
@@ -4820,17 +4826,17 @@
         <v>90</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D91" s="7"/>
       <c r="E91" s="4" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="92" ht="17" spans="1:6">
@@ -4838,16 +4844,16 @@
         <v>91</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="93" ht="17" spans="1:6">
@@ -4855,19 +4861,19 @@
         <v>92</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>155</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="94" ht="17" spans="1:6">
@@ -4875,19 +4881,19 @@
         <v>93</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="95" ht="17" spans="1:6">
@@ -4895,16 +4901,16 @@
         <v>94</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="96" ht="17" spans="1:6">
@@ -4912,16 +4918,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="97" ht="17" spans="1:6">
@@ -4929,16 +4935,16 @@
         <v>96</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="98" ht="17" spans="1:6">
@@ -4946,16 +4952,16 @@
         <v>97</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="99" ht="17" spans="1:6">
@@ -4963,16 +4969,16 @@
         <v>98</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="100" ht="17" spans="1:6">
@@ -4980,16 +4986,16 @@
         <v>99</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C100" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="101" ht="17" spans="1:6">
@@ -4997,16 +5003,16 @@
         <v>100</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="102" ht="51" spans="1:6">
@@ -5014,16 +5020,16 @@
         <v>101</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C102" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="103" ht="34" spans="1:6">
@@ -5031,16 +5037,16 @@
         <v>102</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="104" ht="17" spans="1:6">
@@ -5048,16 +5054,16 @@
         <v>103</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C104" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="105" ht="17" spans="1:6">
@@ -5065,16 +5071,16 @@
         <v>104</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C105" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="106" ht="17" spans="1:6">
@@ -5082,16 +5088,16 @@
         <v>105</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="107" ht="17" spans="1:6">
@@ -5099,16 +5105,16 @@
         <v>106</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="108" ht="17" spans="1:6">
@@ -5116,16 +5122,16 @@
         <v>107</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="109" ht="17" spans="1:6">
@@ -5133,16 +5139,16 @@
         <v>108</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="110" ht="17" spans="1:6">
@@ -5150,16 +5156,16 @@
         <v>109</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C110" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="111" ht="17" spans="1:6">
@@ -5167,16 +5173,16 @@
         <v>110</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C111" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="112" ht="17" spans="1:6">
@@ -5184,16 +5190,16 @@
         <v>111</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="113" ht="17" spans="1:6">
@@ -5201,16 +5207,16 @@
         <v>112</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
     </row>
     <row r="114" ht="17" spans="1:6">
@@ -5218,16 +5224,16 @@
         <v>113</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C114" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="115" ht="17" spans="1:6">
@@ -5235,16 +5241,16 @@
         <v>114</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C115" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" ht="17" spans="1:6">
@@ -5252,16 +5258,16 @@
         <v>115</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C116" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="117" ht="17" spans="1:6">
@@ -5269,16 +5275,16 @@
         <v>116</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C117" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="118" ht="17" spans="1:6">
@@ -5286,16 +5292,16 @@
         <v>117</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C118" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="119" ht="17" spans="1:6">
@@ -5303,16 +5309,16 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C119" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="120" ht="17" spans="1:6">
@@ -5320,16 +5326,16 @@
         <v>119</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C120" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="121" ht="17" spans="1:6">
@@ -5337,16 +5343,16 @@
         <v>120</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C121" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="122" ht="17" spans="1:6">
@@ -5354,16 +5360,16 @@
         <v>121</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C122" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
     <row r="123" ht="21" spans="1:6">
@@ -5371,16 +5377,16 @@
         <v>122</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C123" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="124" ht="17" spans="1:6">
@@ -5388,16 +5394,16 @@
         <v>123</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="125" ht="17" spans="1:6">
@@ -5405,16 +5411,16 @@
         <v>124</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="126" ht="21" spans="1:6">
@@ -5422,16 +5428,16 @@
         <v>125</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="127" ht="17" spans="1:6">
@@ -5439,16 +5445,16 @@
         <v>126</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="128" ht="17" spans="1:6">
@@ -5456,16 +5462,16 @@
         <v>127</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C128" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="129" ht="33" spans="1:6">
@@ -5473,16 +5479,16 @@
         <v>128</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C129" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="130" ht="17" spans="1:6">
@@ -5490,16 +5496,16 @@
         <v>129</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>8</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="131" ht="17" spans="1:7">
@@ -5507,19 +5513,19 @@
         <v>130</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E131" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F131" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="132" ht="17" spans="1:6">
@@ -5527,16 +5533,16 @@
         <v>131</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C132" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="133" ht="17" spans="1:6">
@@ -5544,16 +5550,16 @@
         <v>132</v>
       </c>
       <c r="B133" s="6" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C133" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="134" ht="17" spans="1:6">
@@ -5561,16 +5567,16 @@
         <v>133</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="135" ht="17" spans="1:6">
@@ -5578,16 +5584,16 @@
         <v>134</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="136" ht="17" spans="1:6">
@@ -5595,16 +5601,16 @@
         <v>135</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="137" ht="17" spans="1:6">
@@ -5612,17 +5618,17 @@
         <v>136</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C137" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="D137" s="11"/>
       <c r="E137" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="138" ht="17" spans="1:2">
@@ -5630,7 +5636,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="139" ht="17" spans="1:6">
@@ -5638,16 +5644,16 @@
         <v>138</v>
       </c>
       <c r="B139" s="6" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C139" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="140" ht="17" spans="1:6">
@@ -5655,16 +5661,16 @@
         <v>139</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="141" ht="17" spans="1:6">
@@ -5672,16 +5678,16 @@
         <v>140</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C141" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="142" ht="17" spans="1:6">
@@ -5689,16 +5695,16 @@
         <v>141</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C142" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="143" ht="17" spans="1:6">
@@ -5706,16 +5712,16 @@
         <v>142</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="144" ht="17" spans="1:6">
@@ -5723,16 +5729,16 @@
         <v>143</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="145" ht="17" spans="1:6">
@@ -5740,16 +5746,16 @@
         <v>144</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="146" ht="17" spans="1:6">
@@ -5757,16 +5763,16 @@
         <v>145</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
     </row>
     <row r="147" ht="17" spans="1:6">
@@ -5774,16 +5780,16 @@
         <v>146</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="148" ht="17" spans="1:6">
@@ -5791,16 +5797,16 @@
         <v>147</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="149" ht="17" spans="1:6">
@@ -5808,16 +5814,16 @@
         <v>148</v>
       </c>
       <c r="B149" s="6" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C149" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="150" ht="17" spans="1:6">
@@ -5825,16 +5831,16 @@
         <v>149</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="151" ht="17" spans="1:6">
@@ -5842,16 +5848,16 @@
         <v>150</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="152" ht="17" spans="1:6">
@@ -5859,16 +5865,16 @@
         <v>151</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E152" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F152" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="153" ht="17" spans="1:6">
@@ -5876,16 +5882,16 @@
         <v>152</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="154" ht="17" spans="1:6">
@@ -5893,16 +5899,16 @@
         <v>153</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="155" ht="17" spans="1:6">
@@ -5910,16 +5916,16 @@
         <v>154</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C155" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="156" ht="17" spans="1:3">
@@ -5927,10 +5933,10 @@
         <v>155</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C156" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" ht="17" spans="1:6">
@@ -5938,16 +5944,16 @@
         <v>156</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="158" ht="17" spans="1:6">
@@ -5955,16 +5961,16 @@
         <v>157</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F158" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
     </row>
     <row r="159" ht="17" spans="1:6">
@@ -5972,16 +5978,16 @@
         <v>158</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C159" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="160" ht="17" spans="1:6">
@@ -5989,16 +5995,16 @@
         <v>159</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="161" ht="17" spans="1:6">
@@ -6006,16 +6012,16 @@
         <v>160</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C161" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
     </row>
     <row r="162" ht="17" spans="1:6">
@@ -6023,16 +6029,16 @@
         <v>161</v>
       </c>
       <c r="B162" s="6" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C162" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="163" ht="17" spans="1:6">
@@ -6040,16 +6046,16 @@
         <v>162</v>
       </c>
       <c r="B163" s="6" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="164" ht="17" spans="1:6">
@@ -6057,16 +6063,16 @@
         <v>163</v>
       </c>
       <c r="B164" s="6" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E164" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="165" ht="17" spans="1:6">
@@ -6074,16 +6080,16 @@
         <v>164</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="166" ht="17" spans="1:6">
@@ -6091,16 +6097,16 @@
         <v>165</v>
       </c>
       <c r="B166" s="6" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="167" ht="21" spans="1:6">
@@ -6108,16 +6114,16 @@
         <v>166</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="168" ht="34" spans="1:6">
@@ -6125,16 +6131,16 @@
         <v>167</v>
       </c>
       <c r="B168" s="6" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C168" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E168" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="169" ht="17" spans="1:5">
@@ -6142,13 +6148,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C169" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E169" s="4" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="170" ht="17" spans="1:5">
@@ -6156,13 +6162,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="171" ht="17" spans="1:6">
@@ -6170,16 +6176,16 @@
         <v>170</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="172" ht="17" spans="1:6">
@@ -6187,16 +6193,16 @@
         <v>171</v>
       </c>
       <c r="B172" s="6" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C172" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E172" s="4" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="173" ht="17" spans="1:6">
@@ -6204,16 +6210,16 @@
         <v>172</v>
       </c>
       <c r="B173" s="6" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
     </row>
     <row r="174" ht="17" spans="1:6">
@@ -6221,16 +6227,16 @@
         <v>173</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C174" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E174" s="4" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="175" ht="17" spans="1:6">
@@ -6238,16 +6244,16 @@
         <v>174</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C175" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E175" s="4" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="176" ht="17" spans="1:6">
@@ -6255,16 +6261,16 @@
         <v>175</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C176" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E176" s="4" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F176" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="177" ht="17" spans="1:6">
@@ -6272,16 +6278,16 @@
         <v>176</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C177" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E177" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F177" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="178" ht="21" spans="1:6">
@@ -6289,16 +6295,16 @@
         <v>177</v>
       </c>
       <c r="B178" s="6" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C178" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E178" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="179" ht="17" spans="1:6">
@@ -6306,16 +6312,16 @@
         <v>178</v>
       </c>
       <c r="B179" s="6" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C179" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E179" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="180" ht="17" spans="1:6">
@@ -6323,16 +6329,16 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C180" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E180" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="181" ht="17" spans="1:6">
@@ -6340,16 +6346,16 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C181" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E181" s="4" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="182" ht="17" spans="1:6">
@@ -6357,16 +6363,16 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C182" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E182" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="F182" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="183" ht="17" spans="1:6">
@@ -6374,16 +6380,16 @@
         <v>182</v>
       </c>
       <c r="B183" s="6" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C183" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E183" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="F183" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="184" ht="17" spans="1:6">
@@ -6391,16 +6397,16 @@
         <v>183</v>
       </c>
       <c r="B184" s="6" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E184" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="185" ht="17" spans="1:6">
@@ -6408,16 +6414,16 @@
         <v>184</v>
       </c>
       <c r="B185" s="6" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E185" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="186" ht="17" spans="1:6">
@@ -6425,16 +6431,16 @@
         <v>185</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C186" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E186" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F186" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="187" ht="17" spans="1:6">
@@ -6442,16 +6448,16 @@
         <v>186</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E187" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F187" s="4" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="188" ht="17" spans="1:6">
@@ -6459,16 +6465,16 @@
         <v>187</v>
       </c>
       <c r="B188" s="6" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E188" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="189" ht="17" spans="1:6">
@@ -6476,16 +6482,16 @@
         <v>188</v>
       </c>
       <c r="B189" s="6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C189" s="4" t="s">
         <v>12</v>
       </c>
       <c r="E189" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F189" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="190" ht="17" spans="1:6">
@@ -6493,16 +6499,16 @@
         <v>189</v>
       </c>
       <c r="B190" s="6" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C190" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="F190" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="191" ht="17" spans="1:6">
@@ -6510,16 +6516,16 @@
         <v>190</v>
       </c>
       <c r="B191" s="6" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C191" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E191" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="F191" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="192" ht="17" spans="1:6">
@@ -6527,16 +6533,16 @@
         <v>191</v>
       </c>
       <c r="B192" s="6" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C192" s="4" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="E192" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F192" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="193" ht="17" spans="1:6">
@@ -6544,16 +6550,16 @@
         <v>192</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C193" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E193" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F193" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="194" ht="17" spans="1:6">
@@ -6561,16 +6567,16 @@
         <v>193</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C194" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E194" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="195" ht="31" spans="1:6">
@@ -6578,16 +6584,16 @@
         <v>194</v>
       </c>
       <c r="B195" s="6" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C195" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F195" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="196" ht="16.8" spans="2:5">
@@ -6596,7 +6602,7 @@
     </row>
     <row r="197" ht="20.4" spans="2:5">
       <c r="B197" s="12" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C197" s="4" t="s">
         <v>155</v>
@@ -6605,7 +6611,7 @@
     </row>
     <row r="198" ht="20.4" spans="2:3">
       <c r="B198" s="12" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C198" s="4" t="s">
         <v>155</v>
@@ -6613,7 +6619,7 @@
     </row>
     <row r="199" ht="20.4" spans="2:3">
       <c r="B199" s="12" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C199" s="4" t="s">
         <v>155</v>
@@ -6621,7 +6627,7 @@
     </row>
     <row r="200" ht="20.4" spans="2:3">
       <c r="B200" s="12" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C200" s="4" t="s">
         <v>155</v>
@@ -6629,98 +6635,98 @@
     </row>
     <row r="201" ht="20.4" spans="2:3">
       <c r="B201" s="12" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C201" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="202" ht="20.4" spans="2:3">
       <c r="B202" s="12" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C202" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="203" ht="20.4" spans="2:3">
       <c r="B203" s="12" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C203" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="204" ht="20.4" spans="2:3">
       <c r="B204" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="C204" s="4" t="s">
         <v>621</v>
-      </c>
-      <c r="C204" s="4" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="205" ht="20.4" spans="2:3">
       <c r="B205" s="12" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C205" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="206" ht="20.4" spans="2:3">
       <c r="B206" s="12" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C206" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="207" ht="20.4" spans="2:3">
       <c r="B207" s="12" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C207" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="208" ht="20.4" spans="2:3">
       <c r="B208" s="12" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C208" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="209" ht="20.4" spans="2:3">
       <c r="B209" s="12" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C209" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="210" ht="20.4" spans="2:3">
       <c r="B210" s="12" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C210" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="211" ht="20.4" spans="2:3">
       <c r="B211" s="12" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C211" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="212" ht="20.4" spans="2:3">
       <c r="B212" s="12" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C212" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="213" spans="2:2">
@@ -6728,183 +6734,183 @@
     </row>
     <row r="214" spans="2:3">
       <c r="B214" s="13" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C214" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="215" spans="2:3">
       <c r="B215" s="13" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C215" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="216" spans="2:3">
       <c r="B216" s="13" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C216" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="217" spans="2:3">
       <c r="B217" s="13" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C217" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="218" spans="2:3">
       <c r="B218" s="13" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C218" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="219" spans="2:3">
       <c r="B219" s="13" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C219" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="220" spans="2:3">
       <c r="B220" s="13" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C220" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="221" spans="2:3">
       <c r="B221" s="13" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C221" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="222" spans="2:3">
       <c r="B222" s="13" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C222" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="223" spans="2:3">
       <c r="B223" s="13" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C223" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="224" spans="2:3">
       <c r="B224" s="13" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C224" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="225" spans="2:3">
       <c r="B225" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C225" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="226" spans="2:3">
       <c r="B226" s="13" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C226" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="227" spans="2:3">
       <c r="B227" s="13" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C227" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="228" spans="2:3">
       <c r="B228" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C228" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="229" spans="2:3">
       <c r="B229" s="13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C229" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="230" spans="2:3">
       <c r="B230" s="13" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C230" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="231" spans="2:3">
       <c r="B231" s="13" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C231" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="232" spans="2:3">
       <c r="B232" s="13" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C232" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="233" spans="2:3">
       <c r="B233" s="13" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C233" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="234" ht="16.4" spans="2:3">
       <c r="B234" s="14" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C234" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="235" spans="2:3">
       <c r="B235" s="15" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C235" s="16" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="236" ht="16.4" spans="2:3">
       <c r="B236" s="14" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>155</v>
@@ -6912,7 +6918,7 @@
     </row>
     <row r="237" ht="16.4" spans="2:3">
       <c r="B237" s="14" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>155</v>
@@ -6920,7 +6926,7 @@
     </row>
     <row r="238" ht="16.4" spans="2:3">
       <c r="B238" s="14" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>155</v>
@@ -6928,15 +6934,15 @@
     </row>
     <row r="239" ht="16.4" spans="2:3">
       <c r="B239" s="14" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C239" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="240" ht="16.4" spans="2:3">
       <c r="B240" s="14" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>12</v>
@@ -6944,7 +6950,7 @@
     </row>
     <row r="241" ht="16.4" spans="2:3">
       <c r="B241" s="14" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>12</v>
@@ -6952,7 +6958,7 @@
     </row>
     <row r="242" ht="16.4" spans="2:3">
       <c r="B242" s="14" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>12</v>
@@ -6960,7 +6966,7 @@
     </row>
     <row r="243" ht="16.4" spans="2:3">
       <c r="B243" s="14" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>12</v>
@@ -6968,7 +6974,7 @@
     </row>
     <row r="244" ht="16.4" spans="2:3">
       <c r="B244" s="14" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>155</v>
@@ -6976,7 +6982,7 @@
     </row>
     <row r="245" ht="16.4" spans="2:3">
       <c r="B245" s="14" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>155</v>
@@ -6984,7 +6990,7 @@
     </row>
     <row r="246" ht="16.4" spans="2:3">
       <c r="B246" s="14" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>155</v>
@@ -6992,7 +6998,7 @@
     </row>
     <row r="247" ht="16.4" spans="2:3">
       <c r="B247" s="14" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>155</v>
@@ -7000,7 +7006,7 @@
     </row>
     <row r="248" ht="16.4" spans="2:3">
       <c r="B248" s="14" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>12</v>
@@ -7008,15 +7014,15 @@
     </row>
     <row r="249" ht="16.4" spans="2:3">
       <c r="B249" s="14" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C249" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="250" ht="16.4" spans="2:3">
       <c r="B250" s="14" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>12</v>
@@ -7024,74 +7030,74 @@
     </row>
     <row r="251" ht="16.4" spans="2:3">
       <c r="B251" s="14" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C251" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="252" ht="16.4" spans="2:3">
       <c r="B252" s="14" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C252" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="253" ht="16.4" spans="2:3">
       <c r="B253" s="14" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C253" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="254" ht="16.4" spans="2:3">
       <c r="B254" s="14" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C254" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="255" ht="16.4" spans="2:3">
       <c r="B255" s="14" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C255" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="256" ht="16.4" spans="2:3">
       <c r="B256" s="14" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C256" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="257" ht="16.4" spans="2:3">
       <c r="B257" s="14" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C257" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="258" ht="16.4" spans="2:3">
       <c r="B258" s="14" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C258" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="259" ht="16.4" spans="2:3">
       <c r="B259" s="14" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C259" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="260" spans="2:2">
@@ -7099,82 +7105,82 @@
     </row>
     <row r="261" ht="16.4" spans="2:3">
       <c r="B261" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C261" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="262" ht="16.4" spans="2:3">
       <c r="B262" s="14" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C262" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="263" ht="16.4" spans="2:3">
       <c r="B263" s="14" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C263" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="264" ht="16.4" spans="2:3">
       <c r="B264" s="14" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C264" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="265" ht="16.4" spans="2:3">
       <c r="B265" s="14" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C265" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="266" ht="16.4" spans="2:3">
       <c r="B266" s="14" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C266" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="267" ht="16.4" spans="2:3">
       <c r="B267" s="14" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C267" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="268" ht="16.4" spans="2:3">
       <c r="B268" s="14" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C268" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" ht="16.4" spans="2:3">
       <c r="B269" s="14" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C269" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="270" ht="16.4" spans="2:3">
       <c r="B270" s="14" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C270" s="4" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
